--- a/xlsx/a70_f01_gUPPachuca.xlsx
+++ b/xlsx/a70_f01_gUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC4349-92A4-4EF0-BAD1-82141B9DD27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>46698</t>
   </si>
@@ -150,48 +151,69 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Código de Ética de la Universidad Politécnica de Pachuca</t>
+    <t>Código de Conducta de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Acuerdo</t>
+  </si>
+  <si>
+    <t>Acuerdo que crea el Comité de Control y Desempeño Institucional</t>
+  </si>
+  <si>
+    <t>Acuerdo que crea el Comité de Ética y Prevención de Conflictos de Interés</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>Programa Institucional de Desarrollo 2020 - 2022</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Decreto que aprueba las cuotas y tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado "Universidad Politécnica de Pachuca"</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/normatividad/files/interna/codigos/Periodico-Oficial-2021_abr_26_%20Codigo_de_Conducta.pdf</t>
   </si>
   <si>
     <t>Abogado General (UPP)</t>
   </si>
   <si>
-    <t>Reglamento Comité Ejecutivo de Sociedad de Alumnos de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Reglamento</t>
-  </si>
-  <si>
-    <t>Los campos que se observan vacíos, no se generan en este reporte</t>
-  </si>
-  <si>
-    <t>Programa</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/normatividad/files/interna/programas/pid-2018-2022.pdf</t>
-  </si>
-  <si>
-    <t>Programa Institucional de Desarrollo de la Universidad Politécnica de Pachuca 2018 2022</t>
-  </si>
-  <si>
-    <t>Código de Conducta de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/normatividad/files/interna/codigos/upp-codigo-conducta-mzo-16.pdf</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/normatividad/files/interna/reglamentos/reglamento-del-comite-ejecutivo-de-la-sociedad-de-alumnos-de-la-universidad-politecnica-de-pachuca.pdf</t>
+    <t>https://periodico.hidalgo.gob.mx/?tribe_events=periodico-oficial-ordinario-0-del-10-de-junio-de-2019</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/normatividad/files/interna/programas/programa_institucional_de_desarrollo_2020-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://periodico.hidalgo.gob.mx/?tribe_events=periodico-oficial-alcance-9-del-31-de-diciembre-de-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Código descrito no señala fecha de término de vigencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Acuerdo descrito no señala fecha de término de vigencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Programa descrito no señala fecha de término de vigencia. </t>
+  </si>
+  <si>
+    <t>El Decreto descrito no señala fecha de término de vigencia por lo que, en tanto no sea publicado en el Periódico Oficial del Estado un nuevo decreto de Cuotas y Tarifas de la Universidad Politécnica de Pachuca, el documento del 2022 seguirá vigente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,21 +229,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,11 +253,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -276,63 +293,47 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -363,44 +364,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -428,14 +429,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -463,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,13 +559,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -539,6 +567,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -603,22 +638,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,16 +682,16 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" customWidth="1"/>
     <col min="6" max="6" width="77.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="92.7109375" customWidth="1"/>
+    <col min="10" max="10" width="125.42578125" customWidth="1"/>
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="14" max="14" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -645,38 +700,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -767,22 +822,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -828,164 +883,214 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44312</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44312</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44313</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6">
-        <v>39482</v>
-      </c>
-      <c r="H8" s="6">
-        <v>39482</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M8" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="M8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43626</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43626</v>
+      </c>
+      <c r="H9" s="6">
+        <v>43627</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M9" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43626</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43626</v>
+      </c>
+      <c r="H10" s="6">
+        <v>43627</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M10" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44433</v>
+      </c>
+      <c r="G11" s="6">
+        <v>44433</v>
+      </c>
+      <c r="H11" s="6">
+        <v>44433</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M11" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6">
-        <v>42447</v>
-      </c>
-      <c r="H9" s="6">
-        <v>42447</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="4">
-        <v>44114</v>
-      </c>
-      <c r="M9" s="4">
-        <v>44114</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="11">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="11">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13">
-        <v>43191</v>
-      </c>
-      <c r="H10" s="13">
-        <v>43191</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="11">
-        <v>44114</v>
-      </c>
-      <c r="M10" s="11">
-        <v>44114</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6">
-        <v>39482</v>
-      </c>
-      <c r="H11" s="6">
-        <v>39482</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="4">
-        <v>44114</v>
-      </c>
-      <c r="M11" s="4">
-        <v>44114</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>47</v>
+      <c r="F12" s="10">
+        <v>44561</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44561</v>
+      </c>
+      <c r="H12" s="11">
+        <v>44562</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="6">
+        <v>45301</v>
+      </c>
+      <c r="M12" s="6">
+        <v>45301</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -999,12 +1104,12 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{5F532622-782F-4B27-85D9-3FA34B2DD40C}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{19C9394D-1370-4A2D-A06B-A2F2C2769497}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{57248AFA-43B0-4A82-AC3C-7ED34095FFA3}"/>
+    <hyperlink ref="J11" r:id="rId4" xr:uid="{110481C6-93DF-4853-9F5B-4309779DCCA9}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{902651B2-5686-4378-B863-5024C428319B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>